--- a/test af hazardhulen.xlsx
+++ b/test af hazardhulen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaslemqvist/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaslemqvist/Desktop/hazardhulen.io_ang/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>test nr</t>
   </si>
@@ -50,7 +50,10 @@
     <t>other [ms]</t>
   </si>
   <si>
-    <t>Old Javascript impl.</t>
+    <t>AngularJS impl.</t>
+  </si>
+  <si>
+    <t>jQuery impl.</t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -113,12 +116,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="26">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -202,12 +247,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Old</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> JQuery Implementaiton</a:t>
+              <a:t>jQuery Implementaiton</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -466,6 +507,295 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AngularJS Implementation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$32:$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>loading [ms]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>scripting [ms]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>rendering [ms]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>painting [ms]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>other [ms]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>601.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.56000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -503,7 +833,566 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1054,11 +1943,41 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F13" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F13" dataDxfId="25">
   <autoFilter ref="A2:F13">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1068,12 +1987,27 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="test nr" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="0"/>
-    <tableColumn id="2" name="loading [ms]" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="scripting [ms]" dataDxfId="10" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="rendering [ms]" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="5" name="painting [ms]" dataDxfId="8" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="other [ms]" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="5"/>
+    <tableColumn id="1" name="test nr" totalsRowLabel="Total" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" name="loading [ms]" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" name="scripting [ms]" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" name="rendering [ms]" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" name="painting [ms]" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="6" name="other [ms]" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A19:F30" dataDxfId="12">
+  <autoFilter ref="A19:F30"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="test nr" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="2" name="loading [ms]" dataDxfId="8" totalsRowDxfId="9"/>
+    <tableColumn id="3" name="scripting [ms]" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="4" name="rendering [ms]" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="5" name="painting [ms]" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="6" name="other [ms]" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1342,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1359,14 +2293,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1657,15 +2591,316 @@
         <v>52.760000000000005</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5">
+        <v>679.5</v>
+      </c>
+      <c r="D20" s="5">
+        <v>7</v>
+      </c>
+      <c r="E20" s="5">
+        <v>30.8</v>
+      </c>
+      <c r="F20" s="5">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5">
+        <v>29.3</v>
+      </c>
+      <c r="C21" s="5">
+        <v>605.20000000000005</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F21" s="5">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5">
+        <v>26.3</v>
+      </c>
+      <c r="C22" s="5">
+        <v>603.29999999999995</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5">
+        <v>22.6</v>
+      </c>
+      <c r="C23" s="5">
+        <v>584.4</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F23" s="5">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>5</v>
+      </c>
+      <c r="B24" s="5">
+        <v>24.7</v>
+      </c>
+      <c r="C24" s="5">
+        <v>545.1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F24" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>6</v>
+      </c>
+      <c r="B25" s="5">
+        <v>26.4</v>
+      </c>
+      <c r="C25" s="5">
+        <v>567.79999999999995</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="F25" s="5">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>7</v>
+      </c>
+      <c r="B26" s="5">
+        <v>24.9</v>
+      </c>
+      <c r="C26" s="5">
+        <v>714.5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>8</v>
+      </c>
+      <c r="B27" s="5">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5">
+        <v>642.79999999999995</v>
+      </c>
+      <c r="D27" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="F27" s="5">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5">
+        <v>22.9</v>
+      </c>
+      <c r="C28" s="5">
+        <v>522.70000000000005</v>
+      </c>
+      <c r="D28" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F28" s="5">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>10</v>
+      </c>
+      <c r="B29" s="5">
+        <v>24.6</v>
+      </c>
+      <c r="C29" s="5">
+        <v>553.5</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F29" s="5">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4">
+        <f>AVERAGE(B20:B29)</f>
+        <v>26.07</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" ref="C30:F30" si="2">AVERAGE(C20:C29)</f>
+        <v>601.88</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7799999999999994</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="2"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="2"/>
+        <v>62.560000000000016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="str">
+        <f>Table13[[#Headers],[loading '[ms']]]</f>
+        <v>loading [ms]</v>
+      </c>
+      <c r="C32" t="str">
+        <f>Table13[[#Headers],[scripting '[ms']]]</f>
+        <v>scripting [ms]</v>
+      </c>
+      <c r="D32" t="str">
+        <f>Table13[[#Headers],[rendering '[ms']]]</f>
+        <v>rendering [ms]</v>
+      </c>
+      <c r="E32" t="str">
+        <f>Table13[[#Headers],[painting '[ms']]]</f>
+        <v>painting [ms]</v>
+      </c>
+      <c r="F32" t="str">
+        <f>Table13[[#Headers],[other '[ms']]]</f>
+        <v>other [ms]</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <f>B30</f>
+        <v>26.07</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" ref="C33:F33" si="3">C30</f>
+        <v>601.88</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="3"/>
+        <v>4.7799999999999994</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="3"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="3"/>
+        <v>62.560000000000016</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A18:F18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>